--- a/data/destinations.xlsx
+++ b/data/destinations.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan0\GitHub\Travel_Recommendation_System\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B7EA4-EA84-4452-8C22-0AAC08B08F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="920">
   <si>
     <t>Austria</t>
   </si>
@@ -2773,12 +2779,15 @@
   </si>
   <si>
     <t>A spa town known for its mineral waters, thermal baths, and beautiful natural surroundings.</t>
+  </si>
+  <si>
+    <t>As Malta’s capital city, it is a commercial centre for shopping, bars, dining, and café life. It is also the southernmost capital of Europe, and at just 0.61 square kilometres (0.24 sq mi), it is the European Union's smallest capital city.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2839,14 +2848,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2884,7 +2896,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2956,7 +2968,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3129,32 +3141,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="P181" sqref="P181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3204,7 +3216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3254,7 +3266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -3304,7 +3316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -3354,7 +3366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -3404,7 +3416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -3454,7 +3466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="216" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
@@ -3554,7 +3566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
@@ -3604,7 +3616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -3654,7 +3666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
@@ -3754,7 +3766,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>97</v>
       </c>
@@ -3804,7 +3816,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -3854,7 +3866,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>108</v>
       </c>
@@ -3904,7 +3916,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>114</v>
       </c>
@@ -3954,7 +3966,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>117</v>
       </c>
@@ -4004,7 +4016,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>121</v>
       </c>
@@ -4054,7 +4066,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>127</v>
       </c>
@@ -4104,7 +4116,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>135</v>
       </c>
@@ -4154,7 +4166,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>140</v>
       </c>
@@ -4204,7 +4216,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
@@ -4254,7 +4266,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>150</v>
       </c>
@@ -4304,7 +4316,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
@@ -4354,7 +4366,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>161</v>
       </c>
@@ -4404,7 +4416,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>166</v>
       </c>
@@ -4454,7 +4466,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>171</v>
       </c>
@@ -4504,7 +4516,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>177</v>
       </c>
@@ -4554,7 +4566,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>180</v>
       </c>
@@ -4604,7 +4616,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>185</v>
       </c>
@@ -4654,7 +4666,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>191</v>
       </c>
@@ -4704,7 +4716,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>198</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>204</v>
       </c>
@@ -4804,7 +4816,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>208</v>
       </c>
@@ -4854,7 +4866,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>213</v>
       </c>
@@ -4904,7 +4916,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>219</v>
       </c>
@@ -4954,7 +4966,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>224</v>
       </c>
@@ -5004,7 +5016,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>228</v>
       </c>
@@ -5054,7 +5066,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>234</v>
       </c>
@@ -5104,7 +5116,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>240</v>
       </c>
@@ -5154,7 +5166,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>244</v>
       </c>
@@ -5204,7 +5216,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>247</v>
       </c>
@@ -5254,7 +5266,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>253</v>
       </c>
@@ -5304,7 +5316,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>257</v>
       </c>
@@ -5354,7 +5366,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>261</v>
       </c>
@@ -5404,7 +5416,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>264</v>
       </c>
@@ -5454,7 +5466,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>268</v>
       </c>
@@ -5504,7 +5516,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>272</v>
       </c>
@@ -5554,7 +5566,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>275</v>
       </c>
@@ -5604,7 +5616,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>279</v>
       </c>
@@ -5654,7 +5666,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>269</v>
       </c>
@@ -5704,7 +5716,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>284</v>
       </c>
@@ -5754,7 +5766,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>292</v>
       </c>
@@ -5804,7 +5816,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>296</v>
       </c>
@@ -5854,7 +5866,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>300</v>
       </c>
@@ -5904,7 +5916,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>306</v>
       </c>
@@ -5954,7 +5966,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>309</v>
       </c>
@@ -6004,7 +6016,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>313</v>
       </c>
@@ -6054,7 +6066,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>316</v>
       </c>
@@ -6104,7 +6116,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>320</v>
       </c>
@@ -6154,7 +6166,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>325</v>
       </c>
@@ -6204,7 +6216,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>329</v>
       </c>
@@ -6254,7 +6266,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>335</v>
       </c>
@@ -6304,7 +6316,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>340</v>
       </c>
@@ -6354,7 +6366,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>345</v>
       </c>
@@ -6404,7 +6416,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>350</v>
       </c>
@@ -6454,7 +6466,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>354</v>
       </c>
@@ -6504,7 +6516,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>359</v>
       </c>
@@ -6554,7 +6566,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>364</v>
       </c>
@@ -6604,7 +6616,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>367</v>
       </c>
@@ -6654,7 +6666,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>372</v>
       </c>
@@ -6704,7 +6716,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>376</v>
       </c>
@@ -6754,7 +6766,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>383</v>
       </c>
@@ -6804,7 +6816,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>387</v>
       </c>
@@ -6854,7 +6866,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>391</v>
       </c>
@@ -6904,7 +6916,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>395</v>
       </c>
@@ -6954,7 +6966,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>398</v>
       </c>
@@ -7004,7 +7016,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>402</v>
       </c>
@@ -7054,7 +7066,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>405</v>
       </c>
@@ -7104,7 +7116,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>408</v>
       </c>
@@ -7154,7 +7166,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>412</v>
       </c>
@@ -7204,7 +7216,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>418</v>
       </c>
@@ -7254,7 +7266,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>429</v>
       </c>
@@ -7304,7 +7316,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>433</v>
       </c>
@@ -7354,7 +7366,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>437</v>
       </c>
@@ -7404,7 +7416,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>443</v>
       </c>
@@ -7454,7 +7466,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>447</v>
       </c>
@@ -7504,7 +7516,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>451</v>
       </c>
@@ -7554,7 +7566,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>457</v>
       </c>
@@ -7604,7 +7616,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>461</v>
       </c>
@@ -7654,7 +7666,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>466</v>
       </c>
@@ -7704,7 +7716,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>470</v>
       </c>
@@ -7752,7 +7764,7 @@
       </c>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>476</v>
       </c>
@@ -7800,7 +7812,7 @@
       </c>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>480</v>
       </c>
@@ -7848,7 +7860,7 @@
       </c>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>482</v>
       </c>
@@ -7896,7 +7908,7 @@
       </c>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>484</v>
       </c>
@@ -7944,7 +7956,7 @@
       </c>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>486</v>
       </c>
@@ -7992,7 +8004,7 @@
       </c>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>489</v>
       </c>
@@ -8040,7 +8052,7 @@
       </c>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>494</v>
       </c>
@@ -8088,7 +8100,7 @@
       </c>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>498</v>
       </c>
@@ -8136,7 +8148,7 @@
       </c>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>501</v>
       </c>
@@ -8183,7 +8195,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>503</v>
       </c>
@@ -8231,7 +8243,7 @@
       </c>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>508</v>
       </c>
@@ -8279,7 +8291,7 @@
       </c>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>511</v>
       </c>
@@ -8327,7 +8339,7 @@
       </c>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>514</v>
       </c>
@@ -8375,7 +8387,7 @@
       </c>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>518</v>
       </c>
@@ -8423,7 +8435,7 @@
       </c>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>521</v>
       </c>
@@ -8471,7 +8483,7 @@
       </c>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>524</v>
       </c>
@@ -8519,7 +8531,7 @@
       </c>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>527</v>
       </c>
@@ -8567,7 +8579,7 @@
       </c>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>529</v>
       </c>
@@ -8615,7 +8627,7 @@
       </c>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>531</v>
       </c>
@@ -8662,7 +8674,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>533</v>
       </c>
@@ -8712,7 +8724,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>540</v>
       </c>
@@ -8762,7 +8774,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>544</v>
       </c>
@@ -8812,7 +8824,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>548</v>
       </c>
@@ -8862,7 +8874,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>552</v>
       </c>
@@ -8912,7 +8924,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>557</v>
       </c>
@@ -8962,7 +8974,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>561</v>
       </c>
@@ -9012,7 +9024,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>566</v>
       </c>
@@ -9062,7 +9074,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>569</v>
       </c>
@@ -9112,7 +9124,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>574</v>
       </c>
@@ -9162,7 +9174,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>578</v>
       </c>
@@ -9212,7 +9224,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>586</v>
       </c>
@@ -9262,7 +9274,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>590</v>
       </c>
@@ -9312,7 +9324,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>594</v>
       </c>
@@ -9362,7 +9374,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>599</v>
       </c>
@@ -9412,7 +9424,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>602</v>
       </c>
@@ -9462,7 +9474,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>606</v>
       </c>
@@ -9512,7 +9524,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>610</v>
       </c>
@@ -9562,7 +9574,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>613</v>
       </c>
@@ -9612,7 +9624,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>616</v>
       </c>
@@ -9662,7 +9674,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>619</v>
       </c>
@@ -9712,7 +9724,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>627</v>
       </c>
@@ -9762,7 +9774,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>631</v>
       </c>
@@ -9812,7 +9824,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>636</v>
       </c>
@@ -9862,7 +9874,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>640</v>
       </c>
@@ -9912,7 +9924,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>645</v>
       </c>
@@ -9962,7 +9974,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>649</v>
       </c>
@@ -10012,7 +10024,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>654</v>
       </c>
@@ -10062,7 +10074,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>658</v>
       </c>
@@ -10112,7 +10124,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>662</v>
       </c>
@@ -10162,7 +10174,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>666</v>
       </c>
@@ -10212,7 +10224,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>675</v>
       </c>
@@ -10262,7 +10274,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>678</v>
       </c>
@@ -10312,7 +10324,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>682</v>
       </c>
@@ -10362,7 +10374,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>686</v>
       </c>
@@ -10412,7 +10424,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>690</v>
       </c>
@@ -10462,7 +10474,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>693</v>
       </c>
@@ -10512,7 +10524,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>696</v>
       </c>
@@ -10562,7 +10574,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>700</v>
       </c>
@@ -10612,7 +10624,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>704</v>
       </c>
@@ -10662,7 +10674,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>708</v>
       </c>
@@ -10712,7 +10724,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>719</v>
       </c>
@@ -10762,7 +10774,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>723</v>
       </c>
@@ -10812,7 +10824,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>728</v>
       </c>
@@ -10862,7 +10874,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>733</v>
       </c>
@@ -10912,7 +10924,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>737</v>
       </c>
@@ -10962,7 +10974,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>741</v>
       </c>
@@ -11012,7 +11024,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>745</v>
       </c>
@@ -11062,7 +11074,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>749</v>
       </c>
@@ -11112,7 +11124,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>753</v>
       </c>
@@ -11162,7 +11174,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>757</v>
       </c>
@@ -11212,7 +11224,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>767</v>
       </c>
@@ -11262,7 +11274,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>774</v>
       </c>
@@ -11312,7 +11324,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>778</v>
       </c>
@@ -11362,7 +11374,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>781</v>
       </c>
@@ -11412,7 +11424,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>784</v>
       </c>
@@ -11462,7 +11474,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>787</v>
       </c>
@@ -11512,7 +11524,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>790</v>
       </c>
@@ -11562,7 +11574,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>793</v>
       </c>
@@ -11612,7 +11624,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>798</v>
       </c>
@@ -11662,7 +11674,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>801</v>
       </c>
@@ -11712,7 +11724,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>808</v>
       </c>
@@ -11762,7 +11774,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>810</v>
       </c>
@@ -11812,7 +11824,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>812</v>
       </c>
@@ -11862,7 +11874,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>815</v>
       </c>
@@ -11912,7 +11924,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>817</v>
       </c>
@@ -11962,7 +11974,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>820</v>
       </c>
@@ -12012,7 +12024,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>822</v>
       </c>
@@ -12062,7 +12074,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>825</v>
       </c>
@@ -12112,7 +12124,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>827</v>
       </c>
@@ -12158,9 +12170,11 @@
       <c r="O181" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="P181" s="2"/>
-    </row>
-    <row r="182" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="P181" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>833</v>
       </c>
@@ -12208,7 +12222,7 @@
       </c>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>835</v>
       </c>
@@ -12256,7 +12270,7 @@
       </c>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>838</v>
       </c>
@@ -12304,7 +12318,7 @@
       </c>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>841</v>
       </c>
@@ -12352,7 +12366,7 @@
       </c>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>844</v>
       </c>
@@ -12400,7 +12414,7 @@
       </c>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>846</v>
       </c>
@@ -12448,7 +12462,7 @@
       </c>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>848</v>
       </c>
@@ -12496,7 +12510,7 @@
       </c>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>836</v>
       </c>
@@ -12544,7 +12558,7 @@
       </c>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>851</v>
       </c>
@@ -12592,7 +12606,7 @@
       </c>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>853</v>
       </c>
@@ -12640,7 +12654,7 @@
       </c>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>835</v>
       </c>
@@ -12688,7 +12702,7 @@
       </c>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>863</v>
       </c>
@@ -12736,7 +12750,7 @@
       </c>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>866</v>
       </c>
@@ -12784,7 +12798,7 @@
       </c>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>868</v>
       </c>
@@ -12832,7 +12846,7 @@
       </c>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>871</v>
       </c>
@@ -12880,7 +12894,7 @@
       </c>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>874</v>
       </c>
@@ -12928,7 +12942,7 @@
       </c>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>877</v>
       </c>
@@ -12976,7 +12990,7 @@
       </c>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>879</v>
       </c>
@@ -13024,7 +13038,7 @@
       </c>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>882</v>
       </c>
@@ -13071,7 +13085,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>884</v>
       </c>
@@ -13119,7 +13133,7 @@
       </c>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>892</v>
       </c>
@@ -13167,7 +13181,7 @@
       </c>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>895</v>
       </c>
@@ -13215,7 +13229,7 @@
       </c>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>898</v>
       </c>
@@ -13263,7 +13277,7 @@
       </c>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>901</v>
       </c>
@@ -13311,7 +13325,7 @@
       </c>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>904</v>
       </c>
@@ -13359,7 +13373,7 @@
       </c>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>907</v>
       </c>
@@ -13407,7 +13421,7 @@
       </c>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>909</v>
       </c>
@@ -13455,7 +13469,7 @@
       </c>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>911</v>
       </c>
@@ -13503,7 +13517,7 @@
       </c>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>915</v>
       </c>
@@ -13557,24 +13571,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
